--- a/biology/Botanique/Butomopsis/Butomopsis.xlsx
+++ b/biology/Botanique/Butomopsis/Butomopsis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Butomopsis est un genre végétal de la famille des Alismataceae. 
 Ces plantes herbacées annuelles produisent un suc laiteux. Elles sont originaires des zones marécageuses tropicales d'Afrique, d’Asie et du nord de l'Australie.
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (25 févr. 2012)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (25 févr. 2012) :
 Butomopsis latifolia (D.Don) Kunth (1841)</t>
         </is>
       </c>
